--- a/Pertemuan6/praktikum/data_bersih.xlsx
+++ b/Pertemuan6/praktikum/data_bersih.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/C232670187E9E7CC/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59B18E0C-7277-477D-A479-6A249F8ED302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{B320536F-9D4D-47D9-AD47-C111AA5C6A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6324949A-4749-4DC8-87E9-924A8FCE51F8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="200">
   <si>
     <t>ID</t>
   </si>
@@ -613,6 +613,24 @@
   </si>
   <si>
     <t>jumlah kuadrat residu</t>
+  </si>
+  <si>
+    <t>Median Usia</t>
+  </si>
+  <si>
+    <t>Median Pendapatan</t>
+  </si>
+  <si>
+    <t>Simpangan Baku Usia</t>
+  </si>
+  <si>
+    <t>Simpangan Baku Pendapatan</t>
+  </si>
+  <si>
+    <t>Skavenes Usia</t>
+  </si>
+  <si>
+    <t>Skavenes Pendapatan</t>
   </si>
 </sst>
 </file>
@@ -688,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -701,11 +719,8 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,19 +1026,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.08984375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1067,16 +1083,16 @@
       <c r="N1" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="3" t="s">
         <v>193</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -1085,7 +1101,7 @@
       <c r="T1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="6"/>
+      <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
@@ -1131,12 +1147,20 @@
         <v>245929201336900</v>
       </c>
       <c r="O2">
-        <f>$W11+($W10*C2)</f>
+        <f>$W$17+($W$16*C2)</f>
         <v>11833271.310980812</v>
       </c>
+      <c r="P2">
+        <f>E2*O2</f>
+        <v>185570899024071.53</v>
+      </c>
+      <c r="Q2">
+        <f>P2^2</f>
+        <v>3.4436558564602152E+28</v>
+      </c>
       <c r="R2">
-        <f>SUM(Q2:Q1048576)</f>
-        <v>0</v>
+        <f>SUM(Q2:Q151)</f>
+        <v>3.5460626889698336E+30</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
@@ -1183,8 +1207,20 @@
         <v>92931875053924</v>
       </c>
       <c r="O3">
-        <f>$W11+($W10*C3)</f>
+        <f t="shared" ref="O3:O42" si="3">$W$17+($W$16*C3)</f>
         <v>11989824.269059874</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="4">E3*O3</f>
+        <v>115583320753000.94</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q66" si="5">P3^2</f>
+        <v>1.3359504036291097E+28</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="6">SUM(Q3:Q152)</f>
+        <v>3.511626130405231E+30</v>
       </c>
       <c r="S3" t="s">
         <v>175</v>
@@ -1245,8 +1281,20 @@
         <v>53892498004801</v>
       </c>
       <c r="O4">
-        <f>$W11+($W10*C4)</f>
+        <f t="shared" si="3"/>
         <v>12028962.50857964</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>88306430148821.938</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="5"/>
+        <v>7.7980256056287675E+27</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>3.4982666263689399E+30</v>
       </c>
       <c r="S4" t="s">
         <v>176</v>
@@ -1307,8 +1355,20 @@
         <v>377376741358969</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O3:O5" si="3">$W14+($W13*C5)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>12028962.50857964</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>233676875107657.19</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>5.4604881960079617E+28</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>3.4904686007633111E+30</v>
       </c>
       <c r="S5" t="s">
         <v>177</v>
@@ -1362,8 +1422,20 @@
         <v>173724183119809</v>
       </c>
       <c r="O6">
-        <f>$W12+($W13*C6)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>12028962.50857964</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>158547102809321</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>2.5137183809229403E+28</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>3.4358637188032314E+30</v>
       </c>
       <c r="S6" t="s">
         <v>180</v>
@@ -1417,8 +1489,20 @@
         <v>194162152587264</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O5:O10" si="4">$W13+($W14*C7)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>11833271.310980812</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>164887263767639.31</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>2.7187809752779059E+28</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>3.4107265349940019E+30</v>
       </c>
       <c r="S7" t="s">
         <v>181</v>
@@ -1427,6 +1511,13 @@
         <f>SUM(N2:N151)</f>
         <v>2.492611704953188E+16</v>
       </c>
+      <c r="V7" t="s">
+        <v>194</v>
+      </c>
+      <c r="W7">
+        <f>MEDIAN(C2:C151)</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -1472,8 +1563,20 @@
         <v>27640202186025</v>
       </c>
       <c r="O8">
+        <f t="shared" si="3"/>
+        <v>12087669.867859287</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>63549655124934.078</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>4.0385586664980602E+27</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>3.3835387252412228E+30</v>
       </c>
       <c r="S8" t="s">
         <v>178</v>
@@ -1482,6 +1585,13 @@
         <f>COUNT(A2:A151)</f>
         <v>150</v>
       </c>
+      <c r="V8" t="s">
+        <v>195</v>
+      </c>
+      <c r="W8">
+        <f>MEDIAN(E2:E151)</f>
+        <v>11884682</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -1527,14 +1637,30 @@
         <v>362265747558400</v>
       </c>
       <c r="O9">
+        <f t="shared" si="3"/>
+        <v>11911547.790020343</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
+        <v>226715824320838.41</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>5.1400064997477264E+28</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>3.3795001665747247E+30</v>
+      </c>
+      <c r="V9" t="s">
+        <v>196</v>
+      </c>
+      <c r="W9">
+        <f>_xlfn.STDEV.P(C2:C151)</f>
+        <v>12.677602296964517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="30" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1578,8 +1704,20 @@
         <v>51949930216900</v>
       </c>
       <c r="O10">
+        <f t="shared" si="3"/>
+        <v>11764779.391821222</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>84796176887872.391</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>7.1903916147993437E+27</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>3.3281001015772481E+30</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>182</v>
@@ -1588,12 +1726,12 @@
         <f>T3-((T4*T5)/T8)</f>
         <v>235888517.87999725</v>
       </c>
-      <c r="V10" t="s">
-        <v>189</v>
+      <c r="V10" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="W10">
-        <f>T10/T11</f>
-        <v>9784.5598799413547</v>
+        <f>_xlfn.STDEV.P(E2:E151)</f>
+        <v>4898022.0463378243</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
@@ -1640,8 +1778,20 @@
         <v>40141943478289</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O4:O67" si="5">$W18+($W19*C11)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>11803917.631340988</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>74786871799368.391</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>5.5930761935351633E+27</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>3.3209097099624488E+30</v>
       </c>
       <c r="S11" s="5" t="s">
         <v>179</v>
@@ -1651,11 +1801,11 @@
         <v>24108.239999999991</v>
       </c>
       <c r="V11" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="W11">
-        <f>W4-(W10*W3)</f>
-        <v>11549519.074462513</v>
+        <f>3*(W3-W7/W9)</f>
+        <v>106.08440115726161</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.45">
@@ -1702,8 +1852,20 @@
         <v>43004963805489</v>
       </c>
       <c r="O12">
+        <f t="shared" si="3"/>
+        <v>12038747.06845958</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>78947900184244.391</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.232770943501415E+27</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>3.3153166337689136E+30</v>
       </c>
       <c r="S12" s="5" t="s">
         <v>184</v>
@@ -1712,6 +1874,13 @@
         <f>T7-((T5^2)/T8)</f>
         <v>3598592994961704</v>
       </c>
+      <c r="V12" t="s">
+        <v>199</v>
+      </c>
+      <c r="W12">
+        <f>3*(W4-W8/W10)</f>
+        <v>35772208.800725706</v>
+      </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -1757,8 +1926,20 @@
         <v>174039576068836</v>
       </c>
       <c r="O13">
+        <f t="shared" si="3"/>
+        <v>11882194.110380519</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>156754728874948.63</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.457204502465865E+28</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>3.3090838628254121E+30</v>
       </c>
       <c r="S13" t="s">
         <v>183</v>
@@ -1812,8 +1993,20 @@
         <v>13734902959969</v>
       </c>
       <c r="O14">
+        <f t="shared" si="3"/>
+        <v>11989824.269059874</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>44435044100064.844</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.9744731441747075E+27</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>3.2845118178007536E+30</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
@@ -1860,8 +2053,23 @@
         <v>85017896865225</v>
       </c>
       <c r="O15">
+        <f t="shared" si="3"/>
+        <v>11764779.391821222</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>108477324853978.45</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.1767330007475571E+28</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>3.2825373446565788E+30</v>
+      </c>
+      <c r="W15" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
@@ -1908,11 +2116,30 @@
         <v>400000000000000</v>
       </c>
       <c r="O16">
+        <f t="shared" si="3"/>
+        <v>12077885.307979345</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>241557706159586.91</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5.835012540508133E+28</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>3.2707700146491033E+30</v>
+      </c>
+      <c r="V16" t="s">
+        <v>189</v>
+      </c>
+      <c r="W16">
+        <f>T10/T11</f>
+        <v>9784.5598799413547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1956,11 +2183,30 @@
         <v>141442116987136</v>
       </c>
       <c r="O17">
+        <f t="shared" si="3"/>
+        <v>12117023.547499111</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>144107082497088.28</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.0766851225822606E+28</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>3.2124198892440222E+30</v>
+      </c>
+      <c r="V17" t="s">
+        <v>188</v>
+      </c>
+      <c r="W17">
+        <f>W4-(W16*W3)</f>
+        <v>11549519.074462513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2004,11 +2250,23 @@
         <v>150133729950649</v>
       </c>
       <c r="O18">
+        <f>$W$17+($W$16*C18)</f>
+        <v>11891978.670260459</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>145711308692685.06</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.1231785480934959E+28</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>3.1916530380181999E+30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2052,11 +2310,23 @@
         <v>47042300670121</v>
       </c>
       <c r="O19">
+        <f t="shared" si="3"/>
+        <v>11794133.071461046</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>80892880468419.656</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+        <v>6.54365811047803E+27</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>3.1704212525372648E+30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2100,11 +2370,23 @@
         <v>350895654019681</v>
       </c>
       <c r="O20">
+        <f t="shared" si="3"/>
+        <v>11725641.152301457</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>219647160723911.72</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.8244875214075907E+28</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>3.1638775944267865E+30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2148,11 +2430,23 @@
         <v>316778486185984</v>
       </c>
       <c r="O21">
+        <f t="shared" si="3"/>
+        <v>12097454.427739229</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>215313784412507.16</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.6360025758035614E+28</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>3.1156327192127108E+30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2196,11 +2490,23 @@
         <v>18885786425284</v>
       </c>
       <c r="O22">
+        <f t="shared" si="3"/>
+        <v>12097454.427739229</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>52572851308071.734</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.7639046946606201E+27</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>3.0692726934546748E+30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2244,11 +2550,23 @@
         <v>196006692057121</v>
       </c>
       <c r="O23">
+        <f t="shared" si="3"/>
+        <v>11891978.670260459</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>166490543566548.63</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.7719101097084826E+28</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>3.0665087887600141E+30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2292,11 +2610,23 @@
         <v>29571430713444</v>
       </c>
       <c r="O24">
+        <f t="shared" si="3"/>
+        <v>11901763.230140401</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>64721336178500.758</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.1888513567305111E+27</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>3.0387896876629302E+30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2340,11 +2670,23 @@
         <v>53313932086321</v>
       </c>
       <c r="O25">
+        <f t="shared" si="3"/>
+        <v>11891978.670260459</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>86830935245941.906</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <v>7.5396113156849569E+27</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>3.0346008363061993E+30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2388,11 +2730,23 @@
         <v>132732288902500</v>
       </c>
       <c r="O26">
+        <f t="shared" si="3"/>
+        <v>11901763.230140401</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>137119619086286.05</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.8801789938368181E+28</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>3.0270612249905146E+30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2436,11 +2790,23 @@
         <v>93414100019409</v>
       </c>
       <c r="O27">
+        <f>$W$17+($W$16*C27)</f>
+        <v>11872409.550500577</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>114747989929314.48</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.3167101192818059E+28</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>3.0082594350521465E+30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2484,11 +2850,23 @@
         <v>11970008452900</v>
       </c>
       <c r="O28">
+        <f t="shared" si="3"/>
+        <v>11754994.831941281</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>40669578469705.484</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.6540146129035318E+27</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>2.9950923338593282E+30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2532,11 +2910,23 @@
         <v>39224567754304</v>
       </c>
       <c r="O29">
+        <f t="shared" si="3"/>
+        <v>11862624.990620635</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>74295050910257.484</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5.5197545897577514E+27</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>2.9934383192464247E+30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2580,11 +2970,23 @@
         <v>24918925836996</v>
       </c>
       <c r="O30">
+        <f t="shared" si="3"/>
+        <v>11911547.790020343</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>59461088651333.492</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.5356210636017407E+27</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>2.9879185646566665E+30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2628,11 +3030,23 @@
         <v>87514397237569</v>
       </c>
       <c r="O31">
+        <f t="shared" si="3"/>
+        <v>11872409.550500577</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>111065358445302</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.2335513846583417E+28</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>2.9843829435930651E+30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2676,11 +3090,23 @@
         <v>69589080788049</v>
       </c>
       <c r="O32">
+        <f t="shared" si="3"/>
+        <v>11970255.14929999</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>99855952247246.563</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+        <v>9.9712111992043869E+27</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>2.9720474297464816E+30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2724,11 +3150,23 @@
         <v>170113249306009</v>
       </c>
       <c r="O33">
+        <f t="shared" si="3"/>
+        <v>12087669.867859287</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>157656419906012.13</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.4855546737580816E+28</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>2.9620762185472773E+30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2772,11 +3210,23 @@
         <v>98423125830649</v>
       </c>
       <c r="O34">
+        <f t="shared" si="3"/>
+        <v>11843055.870860754</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>117493097935037.81</v>
+      </c>
+      <c r="Q34">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.3804628062372387E+28</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>2.9372206718096966E+30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2820,11 +3270,23 @@
         <v>14345565302916</v>
       </c>
       <c r="O35">
+        <f t="shared" si="3"/>
+        <v>11764779.391821222</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>44559737244610.039</v>
+      </c>
+      <c r="Q35">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.985570183308687E+27</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>2.9234160437473235E+30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2868,11 +3330,23 @@
         <v>368392284828304</v>
       </c>
       <c r="O36">
+        <f t="shared" si="3"/>
+        <v>12048531.628339522</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="4"/>
+        <v>231254070138052.78</v>
+      </c>
+      <c r="Q36">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5.3478444955415435E+28</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>2.9214304735640152E+30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2916,11 +3390,23 @@
         <v>13239475454881</v>
       </c>
       <c r="O37">
+        <f t="shared" si="3"/>
+        <v>11911547.790020343</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>43341464992698.133</v>
+      </c>
+      <c r="Q37">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.8784825877132777E+27</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>2.8679520286085998E+30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2964,11 +3450,23 @@
         <v>400000000000000</v>
       </c>
       <c r="O38">
+        <f t="shared" si="3"/>
+        <v>12126808.107379053</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="4"/>
+        <v>242536162147581.06</v>
+      </c>
+      <c r="Q38">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5.8823789949277736E+28</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>2.8660735460208864E+30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3012,11 +3510,23 @@
         <v>116483797930756</v>
       </c>
       <c r="O39">
+        <f t="shared" si="3"/>
+        <v>12058316.188219463</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>130142584973464.63</v>
+      </c>
+      <c r="Q39">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.6937092423575461E+28</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>2.8072497560716088E+30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3060,11 +3570,23 @@
         <v>26051673479056</v>
       </c>
       <c r="O40">
+        <f t="shared" si="3"/>
+        <v>12068100.748099403</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="4"/>
+        <v>61596599938762.195</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.794141124015919E+27</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>2.790312663648033E+30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3108,11 +3630,23 @@
         <v>309777318642064</v>
       </c>
       <c r="O41">
+        <f t="shared" si="3"/>
+        <v>11735425.712181399</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>206549266363843</v>
+      </c>
+      <c r="Q41">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.2662599435441769E+28</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>2.7865185225240173E+30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3156,11 +3690,23 @@
         <v>279078340987044</v>
       </c>
       <c r="O42">
+        <f t="shared" si="3"/>
+        <v>11774563.951701164</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="4"/>
+        <v>196701602984969.13</v>
+      </c>
+      <c r="Q42">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.8691520616856413E+28</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>2.7438559230885757E+30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3204,11 +3750,23 @@
         <v>314958493584900</v>
       </c>
       <c r="O43">
+        <f>$W$17+($W$16*C43)</f>
+        <v>11754994.831941281</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="4"/>
+        <v>208616716132100.16</v>
+      </c>
+      <c r="Q43">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.3520934249741254E+28</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>2.7051644024717191E+30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3252,11 +3810,23 @@
         <v>47102608301956</v>
       </c>
       <c r="O44">
+        <f t="shared" ref="O44:O107" si="7">$W$17+($W$16*C44)</f>
+        <v>11784348.511581104</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="4"/>
+        <v>80877562937681.672</v>
+      </c>
+      <c r="Q44">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+        <v>6.5411801867386604E+27</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>2.6616434682219775E+30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3300,11 +3870,23 @@
         <v>251002296674704</v>
       </c>
       <c r="O45">
+        <f t="shared" si="7"/>
+        <v>12077885.307979345</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="4"/>
+        <v>191350564984352.78</v>
+      </c>
+      <c r="Q45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.6615038719831018E+28</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="6"/>
+        <v>2.6551022880352387E+30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3348,11 +3930,23 @@
         <v>168145993620544</v>
       </c>
       <c r="O46">
+        <f t="shared" si="7"/>
+        <v>12019177.948699698</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="4"/>
+        <v>155854026608719.25</v>
+      </c>
+      <c r="Q46">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.4290477610151367E+28</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>2.6184872493154081E+30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3396,11 +3990,23 @@
         <v>185214516297316</v>
       </c>
       <c r="O47">
+        <f t="shared" si="7"/>
+        <v>11891978.670260459</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="4"/>
+        <v>161842147484023.88</v>
+      </c>
+      <c r="Q47">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.6192880702240537E+28</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>2.5941967717052562E+30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3444,11 +4050,23 @@
         <v>400000000000000</v>
       </c>
       <c r="O48">
+        <f t="shared" si="7"/>
+        <v>11999608.828939814</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="4"/>
+        <v>239992176578796.28</v>
+      </c>
+      <c r="Q48">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5.7596244819028139E+28</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="6"/>
+        <v>2.5680038910030156E+30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3492,11 +4110,23 @@
         <v>182689987233796</v>
       </c>
       <c r="O49">
+        <f t="shared" si="7"/>
+        <v>11891978.670260459</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="4"/>
+        <v>160735384813140.06</v>
+      </c>
+      <c r="Q49">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.5835863931028215E+28</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="6"/>
+        <v>2.5104076461839871E+30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3540,11 +4170,23 @@
         <v>327603882228561</v>
       </c>
       <c r="O50">
+        <f t="shared" si="7"/>
+        <v>12048531.628339522</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="4"/>
+        <v>218076386271100.16</v>
+      </c>
+      <c r="Q50">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.7557310249062084E+28</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="6"/>
+        <v>2.4845717822529584E+30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3588,11 +4230,23 @@
         <v>283138203077521</v>
       </c>
       <c r="O51">
+        <f t="shared" si="7"/>
+        <v>11872409.550500577</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="4"/>
+        <v>199773604379913.13</v>
+      </c>
+      <c r="Q51">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.9909493006942045E+28</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="6"/>
+        <v>2.4370144720038964E+30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3636,11 +4290,23 @@
         <v>365503965312964</v>
       </c>
       <c r="O52">
+        <f t="shared" si="7"/>
+        <v>12126808.107379053</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="4"/>
+        <v>231842233432553.69</v>
+      </c>
+      <c r="Q52">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5.3750821202994713E+28</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="6"/>
+        <v>2.3971049789969546E+30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3684,11 +4350,23 @@
         <v>375204493078416</v>
       </c>
       <c r="O53">
+        <f t="shared" si="7"/>
+        <v>12028962.50857964</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="4"/>
+        <v>233003361467839.31</v>
+      </c>
+      <c r="Q53">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5.4290566455312588E+28</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="6"/>
+        <v>2.3433541577939599E+30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3732,11 +4410,23 @@
         <v>164689328261956</v>
       </c>
       <c r="O54">
+        <f t="shared" si="7"/>
+        <v>11882194.110380519</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="4"/>
+        <v>152485789232524</v>
+      </c>
+      <c r="Q54">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.3251915917865731E+28</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="6"/>
+        <v>2.2890635913386473E+30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3780,11 +4470,23 @@
         <v>32398841232004</v>
       </c>
       <c r="O55">
+        <f t="shared" si="7"/>
+        <v>11901763.230140401</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="4"/>
+        <v>67744812502432.703</v>
+      </c>
+      <c r="Q55">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.5893596209897625E+27</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="6"/>
+        <v>2.2658116754207814E+30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3828,11 +4530,23 @@
         <v>114749000713216</v>
       </c>
       <c r="O56">
+        <f t="shared" si="7"/>
+        <v>11989824.269059874</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="4"/>
+        <v>128436148593299.2</v>
+      </c>
+      <c r="Q56">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.6495844265480032E+28</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="6"/>
+        <v>2.2612223157997917E+30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3876,11 +4590,23 @@
         <v>59580027816100</v>
       </c>
       <c r="O57">
+        <f t="shared" si="7"/>
+        <v>11862624.990620635</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="4"/>
+        <v>91565348403852.469</v>
+      </c>
+      <c r="Q57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+        <v>8.3842130283188874E+27</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="6"/>
+        <v>2.2447264715343116E+30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3924,11 +4650,23 @@
         <v>128525709738724</v>
       </c>
       <c r="O58">
+        <f t="shared" si="7"/>
+        <v>11833271.310980812</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="4"/>
+        <v>134152826524341.97</v>
+      </c>
+      <c r="Q58">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.799698086447019E+28</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="6"/>
+        <v>2.2363422585059927E+30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3972,11 +4710,23 @@
         <v>133106776170481</v>
       </c>
       <c r="O59">
+        <f t="shared" si="7"/>
+        <v>11833271.310980812</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="4"/>
+        <v>136522711269606.02</v>
+      </c>
+      <c r="Q59">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.8638450692404209E+28</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="6"/>
+        <v>2.2183452776415225E+30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4020,11 +4770,23 @@
         <v>115757458156096</v>
       </c>
       <c r="O60">
+        <f t="shared" si="7"/>
+        <v>11764779.391821222</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="4"/>
+        <v>126578014422485.61</v>
+      </c>
+      <c r="Q60">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.6021993735138974E+28</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="6"/>
+        <v>2.1997068269491186E+30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4068,11 +4830,23 @@
         <v>372860343206464</v>
       </c>
       <c r="O61">
+        <f t="shared" si="7"/>
+        <v>12019177.948699698</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="4"/>
+        <v>232085422364788.09</v>
+      </c>
+      <c r="Q61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+        <v>5.386364327424208E+28</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="6"/>
+        <v>2.1836848332139797E+30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4116,11 +4890,23 @@
         <v>69835320703009</v>
       </c>
       <c r="O62">
+        <f t="shared" si="7"/>
+        <v>12097454.427739229</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="4"/>
+        <v>101095438581373.08</v>
+      </c>
+      <c r="Q62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1.0220287701960176E+28</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="6"/>
+        <v>2.1298211899397374E+30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4164,11 +4950,23 @@
         <v>138438967788081</v>
       </c>
       <c r="O63">
+        <f t="shared" si="7"/>
+        <v>12048531.628339522</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="4"/>
+        <v>141763131575827.47</v>
+      </c>
+      <c r="Q63">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.0096785474185371E+28</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="6"/>
+        <v>2.1196009022377774E+30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4212,11 +5010,23 @@
         <v>162370847520324</v>
       </c>
       <c r="O64">
+        <f>$W$17+($W$16*C64)</f>
+        <v>11745210.272061341</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="4"/>
+        <v>149663130477956.72</v>
+      </c>
+      <c r="Q64">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2.2399052624461899E+28</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="6"/>
+        <v>2.0995041167635919E+30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4260,11 +5070,23 @@
         <v>319746254102500</v>
       </c>
       <c r="O65">
+        <f t="shared" si="7"/>
+        <v>11833271.310980812</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="4"/>
+        <v>211596049283737.84</v>
+      </c>
+      <c r="Q65">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+        <v>4.4772888072486011E+28</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="6"/>
+        <v>2.07710506413913E+30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4308,11 +5130,23 @@
         <v>267676791010561</v>
       </c>
       <c r="O66">
+        <f t="shared" si="7"/>
+        <v>12107238.987619169</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="4"/>
+        <v>198084490953048.31</v>
+      </c>
+      <c r="Q66">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3.9237465556128278E+28</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="6"/>
+        <v>2.032332176066644E+30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4344,23 +5178,35 @@
         <v>8</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L130" si="6">C67*E67</f>
+        <f t="shared" ref="L67:L130" si="8">C67*E67</f>
         <v>717151590</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="7">C67^2</f>
+        <f t="shared" ref="M67:M130" si="9">C67^2</f>
         <v>2025</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="8">E67^2</f>
+        <f t="shared" ref="N67:N130" si="10">E67^2</f>
         <v>253978470636804</v>
       </c>
       <c r="O67">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>11989824.269059874</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P130" si="11">E67*O67</f>
+        <v>191078256408375.03</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q130" si="12">P67^2</f>
+        <v>3.6510900072064713E+28</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R130" si="13">SUM(Q67:Q216)</f>
+        <v>1.9930947105105158E+30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4392,23 +5238,35 @@
         <v>13</v>
       </c>
       <c r="L68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>722226576</v>
       </c>
       <c r="M68">
+        <f t="shared" si="9"/>
+        <v>2304</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="10"/>
+        <v>226393761753769</v>
+      </c>
+      <c r="O68">
         <f t="shared" si="7"/>
-        <v>2304</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="8"/>
-        <v>226393761753769</v>
-      </c>
-      <c r="O68">
-        <f t="shared" ref="O68:O131" si="9">$W75+($W76*C68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12019177.948699698</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="11"/>
+        <v>180845202838001.81</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="12"/>
+        <v>3.2704987389518017E+28</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="13"/>
+        <v>1.9565838104384509E+30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4440,23 +5298,35 @@
         <v>25</v>
       </c>
       <c r="L69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>223196382</v>
       </c>
       <c r="M69">
+        <f t="shared" si="9"/>
+        <v>1444</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="10"/>
+        <v>34499047740921</v>
+      </c>
+      <c r="O69">
         <f t="shared" si="7"/>
-        <v>1444</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="8"/>
-        <v>34499047740921</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11921332.349900285</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="11"/>
+        <v>70021006555718.461</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="12"/>
+        <v>4.9029413590759675E+27</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="13"/>
+        <v>1.9238788230489331E+30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4488,23 +5358,35 @@
         <v>2</v>
       </c>
       <c r="L70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>198203841</v>
       </c>
       <c r="M70">
+        <f t="shared" si="9"/>
+        <v>729</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="10"/>
+        <v>53888563219689</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="7"/>
-        <v>729</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="8"/>
-        <v>53888563219689</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11813702.19122093</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="11"/>
+        <v>86723005582596.469</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="12"/>
+        <v>7.5208796972790584E+27</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="13"/>
+        <v>1.9189758816898571E+30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4536,23 +5418,35 @@
         <v>4</v>
       </c>
       <c r="L71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>353165976</v>
       </c>
       <c r="M71">
+        <f t="shared" si="9"/>
+        <v>576</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="10"/>
+        <v>216538553132001</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="7"/>
-        <v>576</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="8"/>
-        <v>216538553132001</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11784348.511581104</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="11"/>
+        <v>173409622650695.34</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="12"/>
+        <v>3.0070897227856551E+28</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="13"/>
+        <v>1.9114550019925781E+30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4584,23 +5478,35 @@
         <v>31</v>
       </c>
       <c r="L72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>230600524</v>
       </c>
       <c r="M72">
+        <f t="shared" si="9"/>
+        <v>484</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="10"/>
+        <v>109869011712964</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="7"/>
-        <v>484</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="8"/>
-        <v>109869011712964</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11764779.391821222</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="11"/>
+        <v>123316558749926.14</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="12"/>
+        <v>1.5206973661923986E+28</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="13"/>
+        <v>1.8813841047647213E+30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4632,23 +5538,35 @@
         <v>9</v>
       </c>
       <c r="L73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>411395277</v>
       </c>
       <c r="M73">
+        <f t="shared" si="9"/>
+        <v>2209</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="10"/>
+        <v>76616602054281</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="7"/>
-        <v>2209</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="8"/>
-        <v>76616602054281</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12009393.388819756</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="11"/>
+        <v>105119313187137.7</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="12"/>
+        <v>1.1050070004935542E+28</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="13"/>
+        <v>1.8661771311027974E+30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4680,23 +5598,35 @@
         <v>16</v>
       </c>
       <c r="L74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>421296210</v>
       </c>
       <c r="M74">
+        <f t="shared" si="9"/>
+        <v>2025</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="10"/>
+        <v>87649627931044</v>
+      </c>
+      <c r="O74">
         <f t="shared" si="7"/>
-        <v>2025</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="8"/>
-        <v>87649627931044</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11989824.269059874</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="11"/>
+        <v>112250389402687.67</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="12"/>
+        <v>1.2600149921055017E+28</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="13"/>
+        <v>1.855127061097862E+30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4728,23 +5658,35 @@
         <v>1</v>
       </c>
       <c r="L75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>757568295</v>
       </c>
       <c r="M75">
+        <f t="shared" si="9"/>
+        <v>3025</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="10"/>
+        <v>189722222012961</v>
+      </c>
+      <c r="O75">
         <f t="shared" si="7"/>
-        <v>3025</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="8"/>
-        <v>189722222012961</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12087669.867859287</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="11"/>
+        <v>166495190042127.91</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="12"/>
+        <v>2.7720648307164288E+28</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="13"/>
+        <v>1.8425269111768071E+30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4776,23 +5718,35 @@
         <v>20</v>
       </c>
       <c r="L76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>864368076</v>
       </c>
       <c r="M76">
+        <f t="shared" si="9"/>
+        <v>2704</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="10"/>
+        <v>276306276186369</v>
+      </c>
+      <c r="O76">
         <f t="shared" si="7"/>
-        <v>2704</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="8"/>
-        <v>276306276186369</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12058316.188219463</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="11"/>
+        <v>200438914680979.06</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="12"/>
+        <v>4.01757585184888E+28</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="13"/>
+        <v>1.8148062628696426E+30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4824,23 +5778,35 @@
         <v>5</v>
       </c>
       <c r="L77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>539529980</v>
       </c>
       <c r="M77">
+        <f t="shared" si="9"/>
+        <v>3025</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="10"/>
+        <v>96228958452496</v>
+      </c>
+      <c r="O77">
         <f t="shared" si="7"/>
-        <v>3025</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="8"/>
-        <v>96228958452496</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12087669.867859287</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="11"/>
+        <v>118575641491867.7</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="12"/>
+        <v>1.4060182755207938E+28</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="13"/>
+        <v>1.7746305043511538E+30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4872,23 +5838,35 @@
         <v>30</v>
       </c>
       <c r="L78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>282061101</v>
       </c>
       <c r="M78">
+        <f t="shared" si="9"/>
+        <v>2401</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="10"/>
+        <v>33135553809801</v>
+      </c>
+      <c r="O78">
         <f t="shared" si="7"/>
-        <v>2401</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="8"/>
-        <v>33135553809801</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12028962.50857964</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="11"/>
+        <v>69242906307299.898</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="12"/>
+        <v>4.794580073881512E+27</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="13"/>
+        <v>1.7605703215959459E+30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4920,23 +5898,35 @@
         <v>27</v>
       </c>
       <c r="L79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>220819145</v>
       </c>
       <c r="M79">
+        <f t="shared" si="9"/>
+        <v>1369</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="10"/>
+        <v>35618038567225</v>
+      </c>
+      <c r="O79">
         <f t="shared" si="7"/>
-        <v>1369</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="8"/>
-        <v>35618038567225</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11911547.790020343</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="11"/>
+        <v>71089129692403.563</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="12"/>
+        <v>5.0536643604233744E+27</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="13"/>
+        <v>1.7557757415220644E+30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4968,23 +5958,35 @@
         <v>16</v>
       </c>
       <c r="L80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>204039600</v>
       </c>
       <c r="M80">
+        <f t="shared" si="9"/>
+        <v>625</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="10"/>
+        <v>66611453389056</v>
+      </c>
+      <c r="O80">
         <f t="shared" si="7"/>
-        <v>625</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="8"/>
-        <v>66611453389056</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11794133.071461046</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="11"/>
+        <v>96258807769907.328</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="12"/>
+        <v>9.2657580732839717E+27</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="13"/>
+        <v>1.750722077161641E+30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5016,23 +6018,35 @@
         <v>15</v>
       </c>
       <c r="L81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>219120482</v>
       </c>
       <c r="M81">
+        <f t="shared" si="9"/>
+        <v>1681</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="10"/>
+        <v>28562632737604</v>
+      </c>
+      <c r="O81">
         <f t="shared" si="7"/>
-        <v>1681</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="8"/>
-        <v>28562632737604</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11950686.029540109</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="11"/>
+        <v>63869270317646.219</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="12"/>
+        <v>4.0792836909085641E+27</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="13"/>
+        <v>1.7414563190883571E+30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5064,23 +6078,35 @@
         <v>15</v>
       </c>
       <c r="L82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>487365840</v>
       </c>
       <c r="M82">
+        <f t="shared" si="9"/>
+        <v>1296</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="10"/>
+        <v>183275819443600</v>
+      </c>
+      <c r="O82">
         <f t="shared" si="7"/>
-        <v>1296</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="8"/>
-        <v>183275819443600</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11901763.230140401</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="11"/>
+        <v>161125356503846.94</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="12"/>
+        <v>2.5961380508491772E+28</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="13"/>
+        <v>1.7373770353974484E+30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5112,23 +6138,35 @@
         <v>19</v>
       </c>
       <c r="L83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>469972000</v>
       </c>
       <c r="M83">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="10"/>
+        <v>88349472313600</v>
+      </c>
+      <c r="O83">
         <f t="shared" si="7"/>
-        <v>2500</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="8"/>
-        <v>88349472313600</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12038747.06845958</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="11"/>
+        <v>113157480745161.72</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="12"/>
+        <v>1.2804615448591645E+28</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="13"/>
+        <v>1.711415654888957E+30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5160,23 +6198,35 @@
         <v>18</v>
       </c>
       <c r="L84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>443125061</v>
       </c>
       <c r="M84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>529</v>
       </c>
       <c r="N84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>371190585418249</v>
       </c>
       <c r="O84">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+        <f>$W$17+($W$16*C84)</f>
+        <v>11774563.951701164</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="11"/>
+        <v>226852363884607.81</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="12"/>
+        <v>5.1461995000034511E+28</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="13"/>
+        <v>1.6986110394403653E+30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5208,23 +6258,35 @@
         <v>13</v>
       </c>
       <c r="L85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>864957060</v>
       </c>
       <c r="M85">
+        <f t="shared" si="9"/>
+        <v>3025</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="10"/>
+        <v>247322550626064</v>
+      </c>
+      <c r="O85">
         <f t="shared" si="7"/>
-        <v>3025</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="8"/>
-        <v>247322550626064</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12087669.867859287</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="11"/>
+        <v>190096643475530.13</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="12"/>
+        <v>3.613673386066281E+28</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="13"/>
+        <v>1.6471490444403307E+30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5256,23 +6318,35 @@
         <v>20</v>
       </c>
       <c r="L86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>233195634</v>
       </c>
       <c r="M86">
+        <f t="shared" si="9"/>
+        <v>324</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="10"/>
+        <v>167840134927969</v>
+      </c>
+      <c r="O86">
         <f t="shared" si="7"/>
-        <v>324</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="8"/>
-        <v>167840134927969</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11725641.152301457</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="11"/>
+        <v>151909351253746.03</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="12"/>
+        <v>2.307645099833399E+28</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="13"/>
+        <v>1.6110123105796676E+30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5304,23 +6378,35 @@
         <v>28</v>
       </c>
       <c r="L87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>461097514</v>
       </c>
       <c r="M87">
+        <f t="shared" si="9"/>
+        <v>2116</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="10"/>
+        <v>100477749251881</v>
+      </c>
+      <c r="O87">
         <f t="shared" si="7"/>
-        <v>2116</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="8"/>
-        <v>100477749251881</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11999608.828939814</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="11"/>
+        <v>120282386956447.81</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="12"/>
+        <v>1.4467852611940647E+28</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="13"/>
+        <v>1.5879358595813335E+30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5352,23 +6438,35 @@
         <v>18</v>
       </c>
       <c r="L88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>450445968</v>
       </c>
       <c r="M88">
+        <f t="shared" si="9"/>
+        <v>2916</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="10"/>
+        <v>69582157094464</v>
+      </c>
+      <c r="O88">
         <f t="shared" si="7"/>
-        <v>2916</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="8"/>
-        <v>69582157094464</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12077885.307979345</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="11"/>
+        <v>100748791461958.05</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="12"/>
+        <v>1.0150318981045111E+28</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="13"/>
+        <v>1.5734680069693929E+30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5400,23 +6498,35 @@
         <v>9</v>
       </c>
       <c r="L89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>593746437</v>
       </c>
       <c r="M89">
+        <f t="shared" si="9"/>
+        <v>2601</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="10"/>
+        <v>135538189715569</v>
+      </c>
+      <c r="O89">
         <f t="shared" si="7"/>
-        <v>2601</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="8"/>
-        <v>135538189715569</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12048531.628339522</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="11"/>
+        <v>140270053439380.38</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="12"/>
+        <v>1.9675687891886626E+28</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="13"/>
+        <v>1.5633176879883479E+30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5448,23 +6558,35 @@
         <v>29</v>
       </c>
       <c r="L90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>471542445</v>
       </c>
       <c r="M90">
+        <f t="shared" si="9"/>
+        <v>729</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="10"/>
+        <v>305009982766225</v>
+      </c>
+      <c r="O90">
         <f t="shared" si="7"/>
-        <v>729</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="8"/>
-        <v>305009982766225</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11813702.19122093</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="11"/>
+        <v>206320815398154.63</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="12"/>
+        <v>4.2568278866559394E+28</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="13"/>
+        <v>1.5436420000964612E+30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5496,23 +6618,35 @@
         <v>4</v>
       </c>
       <c r="L91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>385485100</v>
       </c>
       <c r="M91">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="10"/>
+        <v>59439504928804</v>
+      </c>
+      <c r="O91">
         <f t="shared" si="7"/>
-        <v>2500</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="8"/>
-        <v>59439504928804</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12038747.06845958</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="11"/>
+        <v>92815152351196.953</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="12"/>
+        <v>8.614652505975901E+27</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="13"/>
+        <v>1.5010737212299018E+30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5544,23 +6678,35 @@
         <v>8</v>
       </c>
       <c r="L92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>878348928</v>
       </c>
       <c r="M92">
+        <f t="shared" si="9"/>
+        <v>2304</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="10"/>
+        <v>334851058732096</v>
+      </c>
+      <c r="O92">
         <f t="shared" si="7"/>
-        <v>2304</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="8"/>
-        <v>334851058732096</v>
-      </c>
-      <c r="O92">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12019177.948699698</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="11"/>
+        <v>219938168055867.06</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="12"/>
+        <v>4.8372797767770826E+28</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="13"/>
+        <v>1.4924590687239261E+30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5592,23 +6738,35 @@
         <v>24</v>
       </c>
       <c r="L93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>200540720</v>
       </c>
       <c r="M93">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="10"/>
+        <v>100541450945296</v>
+      </c>
+      <c r="O93">
         <f t="shared" si="7"/>
-        <v>400</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="8"/>
-        <v>100541450945296</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11745210.272061341</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="11"/>
+        <v>117769646225528.86</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="12"/>
+        <v>1.3869689572086223E+28</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="13"/>
+        <v>1.4440862709561552E+30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5640,23 +6798,35 @@
         <v>26</v>
       </c>
       <c r="L94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>306838669</v>
       </c>
       <c r="M94">
+        <f t="shared" si="9"/>
+        <v>1369</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="10"/>
+        <v>68772804085969</v>
+      </c>
+      <c r="O94">
         <f t="shared" si="7"/>
-        <v>1369</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="8"/>
-        <v>68772804085969</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11911547.790020343</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="11"/>
+        <v>98781715395127.938</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="12"/>
+        <v>9.7578272964040554E+27</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="13"/>
+        <v>1.4302165813840688E+30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5688,23 +6858,35 @@
         <v>6</v>
       </c>
       <c r="L95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>703686720</v>
       </c>
       <c r="M95">
+        <f t="shared" si="9"/>
+        <v>1600</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="10"/>
+        <v>309484374940224</v>
+      </c>
+      <c r="O95">
         <f t="shared" si="7"/>
-        <v>1600</v>
-      </c>
-      <c r="N95">
-        <f t="shared" si="8"/>
-        <v>309484374940224</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11940901.469660167</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="11"/>
+        <v>210066344725708.56</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="12"/>
+        <v>4.4127869186420229E+28</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="13"/>
+        <v>1.4204587540876646E+30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5736,23 +6918,35 @@
         <v>12</v>
       </c>
       <c r="L96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>208282756</v>
       </c>
       <c r="M96">
+        <f t="shared" si="9"/>
+        <v>484</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="10"/>
+        <v>89631624890404</v>
+      </c>
+      <c r="O96">
         <f t="shared" si="7"/>
-        <v>484</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="8"/>
-        <v>89631624890404</v>
-      </c>
-      <c r="O96">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11764779.391821222</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="11"/>
+        <v>111381848884569.45</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="12"/>
+        <v>1.2405916260945066E+28</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="13"/>
+        <v>1.3763308849012447E+30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5784,23 +6978,35 @@
         <v>14</v>
       </c>
       <c r="L97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1123018794</v>
       </c>
       <c r="M97">
+        <f t="shared" si="9"/>
+        <v>3364</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="10"/>
+        <v>374902262686449</v>
+      </c>
+      <c r="O97">
         <f t="shared" si="7"/>
-        <v>3364</v>
-      </c>
-      <c r="N97">
-        <f t="shared" si="8"/>
-        <v>374902262686449</v>
-      </c>
-      <c r="O97">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12117023.547499111</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="11"/>
+        <v>234614571916931.94</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="12"/>
+        <v>5.5043997355765225E+28</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="13"/>
+        <v>1.3639249686403E+30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5832,23 +7038,35 @@
         <v>24</v>
       </c>
       <c r="L98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>540367950</v>
       </c>
       <c r="M98">
+        <f t="shared" si="9"/>
+        <v>1156</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="10"/>
+        <v>252593011580625</v>
+      </c>
+      <c r="O98">
         <f t="shared" si="7"/>
-        <v>1156</v>
-      </c>
-      <c r="N98">
-        <f t="shared" si="8"/>
-        <v>252593011580625</v>
-      </c>
-      <c r="O98">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11882194.110380519</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="11"/>
+        <v>188845790380246.91</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="12"/>
+        <v>3.5662732544340156E+28</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="13"/>
+        <v>1.3088809712845344E+30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5880,23 +7098,35 @@
         <v>21</v>
       </c>
       <c r="L99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>197032800</v>
       </c>
       <c r="M99">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="10"/>
+        <v>15528769710336</v>
+      </c>
+      <c r="O99">
         <f t="shared" si="7"/>
-        <v>2500</v>
-      </c>
-      <c r="N99">
-        <f t="shared" si="8"/>
-        <v>15528769710336</v>
-      </c>
-      <c r="O99">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12038747.06845958</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="11"/>
+        <v>47440560867807.656</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="12"/>
+        <v>2.250606815452163E+27</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="13"/>
+        <v>1.2732182387401945E+30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5928,23 +7158,35 @@
         <v>14</v>
       </c>
       <c r="L100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>482574726</v>
       </c>
       <c r="M100">
+        <f t="shared" si="9"/>
+        <v>2916</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="10"/>
+        <v>79862265491761</v>
+      </c>
+      <c r="O100">
         <f t="shared" si="7"/>
-        <v>2916</v>
-      </c>
-      <c r="N100">
-        <f t="shared" si="8"/>
-        <v>79862265491761</v>
-      </c>
-      <c r="O100">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12077885.307979345</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="11"/>
+        <v>107934855428843.67</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="12"/>
+        <v>1.1649933016445385E+28</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="13"/>
+        <v>1.2709676319247422E+30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5976,23 +7218,35 @@
         <v>14</v>
       </c>
       <c r="L101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>871136262</v>
       </c>
       <c r="M101">
+        <f t="shared" si="9"/>
+        <v>2916</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="10"/>
+        <v>260246360415409</v>
+      </c>
+      <c r="O101">
         <f t="shared" si="7"/>
-        <v>2916</v>
-      </c>
-      <c r="N101">
-        <f t="shared" si="8"/>
-        <v>260246360415409</v>
-      </c>
-      <c r="O101">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12077885.307979345</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="11"/>
+        <v>194842293704774.91</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="12"/>
+        <v>3.7963519416137766E+28</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="13"/>
+        <v>1.2593176989082972E+30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6024,23 +7278,35 @@
         <v>26</v>
       </c>
       <c r="L102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>212890975</v>
       </c>
       <c r="M102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3025</v>
       </c>
       <c r="N102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>14982666855025</v>
       </c>
       <c r="O102">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+        <f>$W$17+($W$16*C102)</f>
+        <v>12087669.867859287</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="11"/>
+        <v>46788287702667</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="12"/>
+        <v>2.18914386614754E+27</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="13"/>
+        <v>1.2213541794921596E+30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6072,23 +7338,35 @@
         <v>10</v>
       </c>
       <c r="L103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>533703687</v>
       </c>
       <c r="M103">
+        <f t="shared" si="9"/>
+        <v>1089</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="10"/>
+        <v>261560721319921</v>
+      </c>
+      <c r="O103">
         <f t="shared" si="7"/>
-        <v>1089</v>
-      </c>
-      <c r="N103">
-        <f t="shared" si="8"/>
-        <v>261560721319921</v>
-      </c>
-      <c r="O103">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11872409.550500577</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="11"/>
+        <v>192010568202308.22</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="12"/>
+        <v>3.6868058301373255E+28</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="13"/>
+        <v>1.2191650356260119E+30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6120,23 +7398,35 @@
         <v>21</v>
       </c>
       <c r="L104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>464058195</v>
       </c>
       <c r="M104">
+        <f t="shared" si="9"/>
+        <v>2809</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="10"/>
+        <v>76664296314225</v>
+      </c>
+      <c r="O104">
         <f t="shared" si="7"/>
-        <v>2809</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="8"/>
-        <v>76664296314225</v>
-      </c>
-      <c r="O104">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12068100.748099403</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="11"/>
+        <v>105666057551719.98</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="12"/>
+        <v>1.11653157185234E+28</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="13"/>
+        <v>1.1822969773246387E+30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6168,23 +7458,35 @@
         <v>13</v>
       </c>
       <c r="L105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>609048495</v>
       </c>
       <c r="M105">
+        <f t="shared" si="9"/>
+        <v>3025</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="10"/>
+        <v>122624816284881</v>
+      </c>
+      <c r="O105">
         <f t="shared" si="7"/>
-        <v>3025</v>
-      </c>
-      <c r="N105">
-        <f t="shared" si="8"/>
-        <v>122624816284881</v>
-      </c>
-      <c r="O105">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12087669.867859287</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="11"/>
+        <v>133854129837755.41</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="12"/>
+        <v>1.7916928074622683E+28</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="13"/>
+        <v>1.1711316616061154E+30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6216,23 +7518,35 @@
         <v>17</v>
       </c>
       <c r="L106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>272133728</v>
       </c>
       <c r="M106">
+        <f t="shared" si="9"/>
+        <v>1024</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="10"/>
+        <v>72321060464041</v>
+      </c>
+      <c r="O106">
         <f t="shared" si="7"/>
-        <v>1024</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="8"/>
-        <v>72321060464041</v>
-      </c>
-      <c r="O106">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11862624.990620635</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="11"/>
+        <v>100881886330111.2</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="12"/>
+        <v>1.0177154989521477E+28</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="13"/>
+        <v>1.1532147335314926E+30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6264,23 +7578,35 @@
         <v>7</v>
       </c>
       <c r="L107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>558647739</v>
       </c>
       <c r="M107">
+        <f t="shared" si="9"/>
+        <v>1521</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="10"/>
+        <v>205185599138601</v>
+      </c>
+      <c r="O107">
         <f t="shared" si="7"/>
-        <v>1521</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="8"/>
-        <v>205185599138601</v>
-      </c>
-      <c r="O107">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+        <v>11931116.909780225</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="11"/>
+        <v>170904909881881.78</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="12"/>
+        <v>2.9208488221734133E+28</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="13"/>
+        <v>1.1430375785419712E+30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6312,23 +7638,35 @@
         <v>31</v>
       </c>
       <c r="L108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>946737376</v>
       </c>
       <c r="M108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2704</v>
       </c>
       <c r="N108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>331476205294144</v>
       </c>
       <c r="O108">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O108:O113" si="14">$W$17+($W$16*C108)</f>
+        <v>12058316.188219463</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="11"/>
+        <v>219539588981023.41</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="12"/>
+        <v>4.8197631129956697E+28</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="13"/>
+        <v>1.113829090320237E+30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6360,23 +7698,35 @@
         <v>26</v>
       </c>
       <c r="L109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>359359659</v>
       </c>
       <c r="M109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>729</v>
       </c>
       <c r="N109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>177145904686689</v>
       </c>
       <c r="O109">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>11813702.19122093</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="11"/>
+        <v>157235851517211.34</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="12"/>
+        <v>2.4723113002342535E+28</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="13"/>
+        <v>1.0656314591902803E+30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6408,23 +7758,35 @@
         <v>9</v>
       </c>
       <c r="L110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>880000000</v>
       </c>
       <c r="M110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1936</v>
       </c>
       <c r="N110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>400000000000000</v>
       </c>
       <c r="O110">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>11980039.709179932</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="11"/>
+        <v>239600794183598.66</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="12"/>
+        <v>5.7408540573411202E+28</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="13"/>
+        <v>1.0409083461879377E+30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6456,23 +7818,35 @@
         <v>10</v>
       </c>
       <c r="L111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>438929976</v>
       </c>
       <c r="M111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>529</v>
       </c>
       <c r="N111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>364195697223744</v>
       </c>
       <c r="O111">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>11774563.951701164</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="11"/>
+        <v>224704742292637.28</v>
+      </c>
+      <c r="Q111">
+        <f t="shared" si="12"/>
+        <v>5.049222120880053E+28</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="13"/>
+        <v>9.834998056145265E+29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -6504,23 +7878,35 @@
         <v>1</v>
       </c>
       <c r="L112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>866575935</v>
       </c>
       <c r="M112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2601</v>
       </c>
       <c r="N112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>288717359139225</v>
       </c>
       <c r="O112">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>12048531.628339522</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="11"/>
+        <v>204724854141282.22</v>
+      </c>
+      <c r="Q112">
+        <f t="shared" si="12"/>
+        <v>4.1912265903169283E+28</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="13"/>
+        <v>9.3300758440572608E+29</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -6552,23 +7938,35 @@
         <v>31</v>
       </c>
       <c r="L113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>711341196</v>
       </c>
       <c r="M113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2809</v>
       </c>
       <c r="N113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>180137521227024</v>
       </c>
       <c r="O113">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="14"/>
+        <v>12068100.748099403</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="11"/>
+        <v>161972400369840.09</v>
+      </c>
+      <c r="Q113">
+        <f t="shared" si="12"/>
+        <v>2.6235058481567776E+28</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="13"/>
+        <v>8.9109531850255676E+29</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -6600,23 +7998,35 @@
         <v>4</v>
       </c>
       <c r="L114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>366169820</v>
       </c>
       <c r="M114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="N114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>335200842697081</v>
       </c>
       <c r="O114">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+        <f>$W$17+($W$16*C114)</f>
+        <v>11745210.272061341</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="11"/>
+        <v>215037076559142.59</v>
+      </c>
+      <c r="Q114">
+        <f t="shared" si="12"/>
+        <v>4.6240944295102549E+28</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="13"/>
+        <v>8.6486026002098896E+29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -6648,23 +8058,35 @@
         <v>26</v>
       </c>
       <c r="L115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>89611080</v>
       </c>
       <c r="M115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>676</v>
       </c>
       <c r="N115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>11878913696400</v>
       </c>
       <c r="O115">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O115:O124" si="15">$W$17+($W$16*C115)</f>
+        <v>11803917.631340988</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="11"/>
+        <v>40683146429827.219</v>
+      </c>
+      <c r="Q115">
+        <f t="shared" si="12"/>
+        <v>1.6551184034307631E+27</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="13"/>
+        <v>8.1861931572588636E+29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -6696,23 +8118,35 @@
         <v>26</v>
       </c>
       <c r="L116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>266254160</v>
       </c>
       <c r="M116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1600</v>
       </c>
       <c r="N116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44307048573316</v>
       </c>
       <c r="O116">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v>11940901.469660167</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="11"/>
+        <v>79482867261178.328</v>
+      </c>
+      <c r="Q116">
+        <f t="shared" si="12"/>
+        <v>6.3175261880580936E+27</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="13"/>
+        <v>8.1696419732245572E+29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -6744,23 +8178,35 @@
         <v>20</v>
       </c>
       <c r="L117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>499138500</v>
       </c>
       <c r="M117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>784</v>
       </c>
       <c r="N117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>317779645640625</v>
       </c>
       <c r="O117">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v>11823486.75110087</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="11"/>
+        <v>210769908632655.78</v>
+      </c>
+      <c r="Q117">
+        <f t="shared" si="12"/>
+        <v>4.4423954385018069E+28</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="13"/>
+        <v>8.1064667113439759E+29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -6792,23 +8238,35 @@
         <v>28</v>
       </c>
       <c r="L118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>515074504</v>
       </c>
       <c r="M118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2209</v>
       </c>
       <c r="N118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>120100382377024</v>
       </c>
       <c r="O118">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v>12009393.388819756</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="11"/>
+        <v>131611326448664.14</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="12"/>
+        <v>1.7321541249576841E+28</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="13"/>
+        <v>7.6622271674937943E+29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6840,23 +8298,35 @@
         <v>26</v>
       </c>
       <c r="L119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>500782056</v>
       </c>
       <c r="M119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2601</v>
       </c>
       <c r="N119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>96417788393536</v>
       </c>
       <c r="O119">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v>12048531.628339522</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="11"/>
+        <v>118307616482762.63</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="12"/>
+        <v>1.3996692117832446E+28</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="13"/>
+        <v>7.4890117549980266E+29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6888,23 +8358,35 @@
         <v>17</v>
       </c>
       <c r="L120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>591944349</v>
       </c>
       <c r="M120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>961</v>
       </c>
       <c r="N120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>364618223010441</v>
       </c>
       <c r="O120">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v>11852840.430740695</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="11"/>
+        <v>226329739115344.53</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="12"/>
+        <v>5.1225150808019912E+28</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="13"/>
+        <v>7.3490448338197021E+29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6936,23 +8418,35 @@
         <v>5</v>
       </c>
       <c r="L121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>234285600</v>
       </c>
       <c r="M121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2304</v>
       </c>
       <c r="N121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23823672902500</v>
       </c>
       <c r="O121">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v>12019177.948699698</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="11"/>
+        <v>58665006608705.789</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="12"/>
+        <v>3.4415830003994942E+27</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="13"/>
+        <v>6.8367933257395027E+29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6984,23 +8478,35 @@
         <v>6</v>
       </c>
       <c r="L122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>633416688</v>
       </c>
       <c r="M122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2304</v>
       </c>
       <c r="N122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>174139192984761</v>
       </c>
       <c r="O122">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v>12019177.948699698</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="11"/>
+        <v>158607247682249.94</v>
+      </c>
+      <c r="Q122">
+        <f t="shared" si="12"/>
+        <v>2.5156259017338579E+28</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="13"/>
+        <v>6.8023774957355079E+29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -7032,23 +8538,35 @@
         <v>24</v>
       </c>
       <c r="L123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>324104238</v>
       </c>
       <c r="M123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1369</v>
       </c>
       <c r="N123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>76730136661476</v>
       </c>
       <c r="O123">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v>11911547.790020343</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="11"/>
+        <v>104340084321219.66</v>
+      </c>
+      <c r="Q123">
+        <f t="shared" si="12"/>
+        <v>1.0886853196159228E+28</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="13"/>
+        <v>6.5508149055621227E+29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -7080,23 +8598,35 @@
         <v>11</v>
       </c>
       <c r="L124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>296487740</v>
       </c>
       <c r="M124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="N124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>219762449925769</v>
       </c>
       <c r="O124">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="15"/>
+        <v>11745210.272061341</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="11"/>
+        <v>174115542469412.59</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="12"/>
+        <v>3.031622212941782E+28</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="13"/>
+        <v>6.44194637360053E+29</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -7128,23 +8658,35 @@
         <v>5</v>
       </c>
       <c r="L125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>520000000</v>
       </c>
       <c r="M125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>676</v>
       </c>
       <c r="N125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>400000000000000</v>
       </c>
       <c r="O125">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+        <f>$W$17+($W$16*C125)</f>
+        <v>11803917.631340988</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="11"/>
+        <v>236078352626819.75</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="12"/>
+        <v>5.5732988578993055E+28</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="13"/>
+        <v>6.1387841523063522E+29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -7176,23 +8718,35 @@
         <v>19</v>
       </c>
       <c r="L126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>230046195</v>
       </c>
       <c r="M126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>961</v>
       </c>
       <c r="N126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>55068940514025</v>
       </c>
       <c r="O126">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O126:O143" si="16">$W$17+($W$16*C126)</f>
+        <v>11852840.430740695</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="11"/>
+        <v>87958091646259.938</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="12"/>
+        <v>7.7366258860518621E+27</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="13"/>
+        <v>5.5814542665164208E+29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -7224,23 +8778,35 @@
         <v>15</v>
       </c>
       <c r="L127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>268123401</v>
       </c>
       <c r="M127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>441</v>
       </c>
       <c r="N127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>163016231663961</v>
       </c>
       <c r="O127">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11754994.831941281</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="11"/>
+        <v>150085199670358.06</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="12"/>
+        <v>2.2525567160091248E+28</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="13"/>
+        <v>5.5040880076559022E+29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -7272,23 +8838,35 @@
         <v>12</v>
       </c>
       <c r="L128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>374601500</v>
       </c>
       <c r="M128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>625</v>
       </c>
       <c r="N128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>224522054083600</v>
       </c>
       <c r="O128">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11794133.071461046</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="11"/>
+        <v>176723997590756.59</v>
+      </c>
+      <c r="Q128">
+        <f t="shared" si="12"/>
+        <v>3.1231371324457741E+28</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="13"/>
+        <v>5.2788323360549898E+29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -7320,23 +8898,35 @@
         <v>1</v>
       </c>
       <c r="L129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>424864152</v>
       </c>
       <c r="M129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>576</v>
       </c>
       <c r="N129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>313384631344929</v>
       </c>
       <c r="O129">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11784348.511581104</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="11"/>
+        <v>208614468218557</v>
+      </c>
+      <c r="Q129">
+        <f t="shared" si="12"/>
+        <v>4.3519996350111333E+28</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="13"/>
+        <v>4.966518622810413E+29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -7368,23 +8958,35 @@
         <v>14</v>
       </c>
       <c r="L130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>273252708</v>
       </c>
       <c r="M130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>324</v>
       </c>
       <c r="N130">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>230453834658436</v>
       </c>
       <c r="O130">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11725641.152301457</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="11"/>
+        <v>178003510994589.63</v>
+      </c>
+      <c r="Q130">
+        <f t="shared" si="12"/>
+        <v>3.1685249926400989E+28</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="13"/>
+        <v>4.5313186593092995E+29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -7416,23 +9018,35 @@
         <v>23</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131:L151" si="10">C131*E131</f>
+        <f t="shared" ref="L131:L151" si="17">C131*E131</f>
         <v>371500846</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M151" si="11">C131^2</f>
+        <f t="shared" ref="M131:M151" si="18">C131^2</f>
         <v>841</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N151" si="12">E131^2</f>
+        <f t="shared" ref="N131:N151" si="19">E131^2</f>
         <v>164105682019876</v>
       </c>
       <c r="O131">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11833271.310980812</v>
+      </c>
+      <c r="P131">
+        <f t="shared" ref="P131:P151" si="20">E131*O131</f>
+        <v>151588631137134.5</v>
+      </c>
+      <c r="Q131">
+        <f t="shared" ref="Q131:Q151" si="21">P131^2</f>
+        <v>2.2979113090030222E+28</v>
+      </c>
+      <c r="R131">
+        <f t="shared" ref="R131:R151" si="22">SUM(Q131:Q280)</f>
+        <v>4.2144661600452892E+29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -7464,23 +9078,35 @@
         <v>12</v>
       </c>
       <c r="L132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>282168999</v>
       </c>
       <c r="M132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>441</v>
       </c>
       <c r="N132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>180542730151161</v>
       </c>
       <c r="O132">
-        <f t="shared" ref="O132:O151" si="13">$W139+($W140*C132)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11754994.831941281</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="20"/>
+        <v>157947386903764.03</v>
+      </c>
+      <c r="Q132">
+        <f t="shared" si="21"/>
+        <v>2.4947377029727327E+28</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="22"/>
+        <v>3.984675029144987E+29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -7512,23 +9138,35 @@
         <v>9</v>
       </c>
       <c r="L133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>144569480</v>
       </c>
       <c r="M133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>361</v>
       </c>
       <c r="N133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>57895663566400</v>
       </c>
       <c r="O133">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11735425.712181399</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="20"/>
+        <v>89293915409931.281</v>
+      </c>
+      <c r="Q133">
+        <f t="shared" si="21"/>
+        <v>7.9734033292359627E+27</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="22"/>
+        <v>3.7352012588477128E+29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -7560,23 +9198,35 @@
         <v>5</v>
       </c>
       <c r="L134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>546315320</v>
       </c>
       <c r="M134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2116</v>
       </c>
       <c r="N134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>141049352016400</v>
       </c>
       <c r="O134">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11999608.828939814</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="20"/>
+        <v>142512394288197.38</v>
+      </c>
+      <c r="Q134">
+        <f t="shared" si="21"/>
+        <v>2.0309782525754634E+28</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="22"/>
+        <v>3.6554672255553534E+29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -7608,23 +9258,35 @@
         <v>4</v>
       </c>
       <c r="L135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>76928058</v>
       </c>
       <c r="M135">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>324</v>
       </c>
       <c r="N135">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>18265204035961</v>
       </c>
       <c r="O135">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11725641.152301457</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="20"/>
+        <v>50112822369524.07</v>
+      </c>
+      <c r="Q135">
+        <f t="shared" si="21"/>
+        <v>2.5112949658394719E+27</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="22"/>
+        <v>3.4523694002978074E+29</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -7656,23 +9318,35 @@
         <v>14</v>
       </c>
       <c r="L136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>430864368</v>
       </c>
       <c r="M136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3364</v>
       </c>
       <c r="N136">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>55185524260416</v>
       </c>
       <c r="O136">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>12117023.547499111</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="20"/>
+        <v>90013684359212.453</v>
+      </c>
+      <c r="Q136">
+        <f t="shared" si="21"/>
+        <v>8.1024633719199286E+27</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="22"/>
+        <v>3.4272564506394126E+29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -7704,23 +9378,35 @@
         <v>21</v>
       </c>
       <c r="L137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>557157168</v>
       </c>
       <c r="M137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1296</v>
       </c>
       <c r="N137">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>239524776121744</v>
       </c>
       <c r="O137">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11901763.230140401</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="20"/>
+        <v>184198685986432.16</v>
+      </c>
+      <c r="Q137">
+        <f t="shared" si="21"/>
+        <v>3.3929155919128238E+28</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="22"/>
+        <v>3.3462318169202132E+29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -7752,23 +9438,35 @@
         <v>7</v>
       </c>
       <c r="L138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>272980268</v>
       </c>
       <c r="M138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>484</v>
       </c>
       <c r="N138">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>153963278341636</v>
       </c>
       <c r="O138">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11764779.391821222</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="20"/>
+        <v>145979665060919.75</v>
+      </c>
+      <c r="Q138">
+        <f t="shared" si="21"/>
+        <v>2.1310062611298313E+28</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="22"/>
+        <v>3.0069402577289308E+29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -7800,23 +9498,35 @@
         <v>17</v>
       </c>
       <c r="L139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>489581010</v>
       </c>
       <c r="M139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2916</v>
       </c>
       <c r="N139">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>82198067679225</v>
       </c>
       <c r="O139">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>12077885.307979345</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="20"/>
+        <v>109501912736012.77</v>
+      </c>
+      <c r="Q139">
+        <f t="shared" si="21"/>
+        <v>1.1990668892845355E+28</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="22"/>
+        <v>2.7938396316159474E+29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -7848,23 +9558,35 @@
         <v>8</v>
       </c>
       <c r="L140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>311639159</v>
       </c>
       <c r="M140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>361</v>
       </c>
       <c r="N140">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>269027605047721</v>
       </c>
       <c r="O140">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11735425.712181399</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="20"/>
+        <v>192485168392167.75</v>
+      </c>
+      <c r="Q140">
+        <f t="shared" si="21"/>
+        <v>3.7050540050961176E+28</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="22"/>
+        <v>2.6739329426874941E+29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -7896,23 +9618,35 @@
         <v>31</v>
       </c>
       <c r="L141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>354252880</v>
       </c>
       <c r="M141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>400</v>
       </c>
       <c r="N141">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>313737757470736</v>
       </c>
       <c r="O141">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11745210.272061341</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="20"/>
+        <v>208038728254165.66</v>
+      </c>
+      <c r="Q141">
+        <f t="shared" si="21"/>
+        <v>4.328011245361058E+28</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="22"/>
+        <v>2.3034275421778826E+29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -7944,23 +9678,35 @@
         <v>16</v>
       </c>
       <c r="L142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>600051296</v>
       </c>
       <c r="M142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>3364</v>
       </c>
       <c r="N142">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>107033756786944</v>
       </c>
       <c r="O142">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>12117023.547499111</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="20"/>
+        <v>125359235919644.13</v>
+      </c>
+      <c r="Q142">
+        <f t="shared" si="21"/>
+        <v>1.5714938030356993E+28</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="22"/>
+        <v>1.8706264176417767E+29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -7992,23 +9738,35 @@
         <v>24</v>
       </c>
       <c r="L143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>458906760</v>
       </c>
       <c r="M143">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>900</v>
       </c>
       <c r="N143">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>233994904859664</v>
       </c>
       <c r="O143">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>11843055.870860754</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="20"/>
+        <v>181161946606522.91</v>
+      </c>
+      <c r="Q143">
+        <f t="shared" si="21"/>
+        <v>3.2819650898264654E+28</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="22"/>
+        <v>1.7134770373382067E+29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8040,23 +9798,35 @@
         <v>19</v>
       </c>
       <c r="L144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>587331078</v>
       </c>
       <c r="M144">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1444</v>
       </c>
       <c r="N144">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>238890439878561</v>
       </c>
       <c r="O144">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+        <f>$W$17+($W$16*C144)</f>
+        <v>11921332.349900285</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="20"/>
+        <v>184257078427979.16</v>
+      </c>
+      <c r="Q144">
+        <f t="shared" si="21"/>
+        <v>3.3950670950814461E+28</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="22"/>
+        <v>1.3852805283555602E+29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -8088,23 +9858,35 @@
         <v>9</v>
       </c>
       <c r="L145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>64945098</v>
       </c>
       <c r="M145">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>324</v>
       </c>
       <c r="N145">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>13018104179721</v>
       </c>
       <c r="O145">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O145:O151" si="23">$W$17+($W$16*C145)</f>
+        <v>11725641.152301457</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="20"/>
+        <v>42306828541613.945</v>
+      </c>
+      <c r="Q145">
+        <f t="shared" si="21"/>
+        <v>1.7898677412495204E+27</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="22"/>
+        <v>1.0457738188474158E+29</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8136,23 +9918,35 @@
         <v>12</v>
       </c>
       <c r="L146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>240821665</v>
       </c>
       <c r="M146">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2809</v>
       </c>
       <c r="N146">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>20646163878025</v>
       </c>
       <c r="O146">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="23"/>
+        <v>12068100.748099403</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="20"/>
+        <v>54835096519717.813</v>
+      </c>
+      <c r="Q146">
+        <f t="shared" si="21"/>
+        <v>3.0068878103267685E+27</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="22"/>
+        <v>1.0278751414349204E+29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8184,23 +9978,35 @@
         <v>9</v>
       </c>
       <c r="L147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>607205475</v>
       </c>
       <c r="M147">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2025</v>
       </c>
       <c r="N147">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>182073327837025</v>
       </c>
       <c r="O147">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="23"/>
+        <v>11989824.269059874</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="20"/>
+        <v>161784154232467.31</v>
+      </c>
+      <c r="Q147">
+        <f t="shared" si="21"/>
+        <v>2.6174112560714771E+28</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="22"/>
+        <v>9.9780626333165277E+28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8232,23 +10038,35 @@
         <v>30</v>
       </c>
       <c r="L148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>207681921</v>
       </c>
       <c r="M148">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>729</v>
       </c>
       <c r="N148">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>59165679437929</v>
       </c>
       <c r="O148">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="23"/>
+        <v>11813702.19122093</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="20"/>
+        <v>90870087599802.672</v>
+      </c>
+      <c r="Q148">
+        <f t="shared" si="21"/>
+        <v>8.2573728203958116E+27</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="22"/>
+        <v>7.3606513772450506E+28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -8280,23 +10098,35 @@
         <v>2</v>
       </c>
       <c r="L149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>941024448</v>
       </c>
       <c r="M149">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>2304</v>
       </c>
       <c r="N149">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>384343321064976</v>
       </c>
       <c r="O149">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="23"/>
+        <v>12019177.948699698</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="20"/>
+        <v>235632089470602.19</v>
+      </c>
+      <c r="Q149">
+        <f t="shared" si="21"/>
+        <v>5.5522481588281872E+28</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="22"/>
+        <v>6.5349140952054699E+28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -8328,23 +10158,35 @@
         <v>18</v>
       </c>
       <c r="L150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>262962290</v>
       </c>
       <c r="M150">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>1156</v>
       </c>
       <c r="N150">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>59817617614225</v>
       </c>
       <c r="O150">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+        <f t="shared" si="23"/>
+        <v>11882194.110380519</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="20"/>
+        <v>91899087455593.359</v>
+      </c>
+      <c r="Q150">
+        <f t="shared" si="21"/>
+        <v>8.4454422751707964E+27</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="22"/>
+        <v>9.8266593637728237E+27</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -8376,20 +10218,32 @@
         <v>29</v>
       </c>
       <c r="L151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>81861208</v>
       </c>
       <c r="M151">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>676</v>
       </c>
       <c r="N151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>9913102626064</v>
       </c>
       <c r="O151">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>$W$17+($W$16*C151)</f>
+        <v>11803917.631340988</v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="20"/>
+        <v>37164729093618.148</v>
+      </c>
+      <c r="Q151">
+        <f t="shared" si="21"/>
+        <v>1.3812170886020273E+27</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="22"/>
+        <v>1.3812170886020273E+27</v>
       </c>
     </row>
   </sheetData>
